--- a/economic-calc.xlsx
+++ b/economic-calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danil\IdeaProjects\supreme-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBD7C00-61B6-4FE3-A15E-A4B5B234996F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB59A55-6EA2-4213-9C64-98E846FFBF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16185" yWindow="3270" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -74,20 +74,6 @@
     <t xml:space="preserve">Разработка технического  задания </t>
   </si>
   <si>
-    <t>Разработка
-программного
-обеспечения</t>
-  </si>
-  <si>
-    <t>Разработка
-экономического
-раздела</t>
-  </si>
-  <si>
-    <t>Разработка
-экологического раздела</t>
-  </si>
-  <si>
     <t>Утверждение ВКР</t>
   </si>
   <si>
@@ -110,6 +96,17 @@
   </si>
   <si>
     <t>Консультант БЖД</t>
+  </si>
+  <si>
+    <t>Разработка экономического
+раздела</t>
+  </si>
+  <si>
+    <t>Разработка экологического раздела</t>
+  </si>
+  <si>
+    <t>Разработка программного
+обеспечения</t>
   </si>
 </sst>
 </file>
@@ -275,7 +272,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -324,6 +321,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -457,18 +460,15 @@
                   <c:v>Подготовительные работы</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Разработка
-программного
+                  <c:v>Разработка программного
 обеспечения</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Разработка
-экономического
+                  <c:v>Разработка экономического
 раздела</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Разработка
-экологического раздела</c:v>
+                  <c:v>Разработка экологического раздела</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Утверждение ВКР</c:v>
@@ -547,11 +547,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -568,7 +568,7 @@
         </c:txPr>
         <c:crossAx val="1051550448"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
@@ -668,7 +668,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
@@ -1533,7 +1533,7 @@
   <dimension ref="C2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,10 +1559,10 @@
         <v>2</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1607,7 +1607,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I5">
         <f>I4+J4</f>
@@ -1618,7 +1618,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="3:10" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <v>10</v>
       </c>
@@ -1633,8 +1633,8 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>4</v>
+      <c r="H6" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I9" si="2">I5+J5</f>
@@ -1645,7 +1645,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="3:10" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="8">
         <v>6</v>
       </c>
@@ -1660,8 +1660,8 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H7" s="18" t="s">
-        <v>5</v>
+      <c r="H7" s="20" t="s">
+        <v>12</v>
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
@@ -1672,7 +1672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="3:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="8">
         <v>32</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>36</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
@@ -1715,7 +1715,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
@@ -1806,7 +1806,7 @@
         <v>56</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I14">
         <f>SUM(F4:F8,F10:F11,F13:F14,F16,F19,F22:F23)</f>
@@ -1829,7 +1829,7 @@
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I15">
         <f>SUM(F5,F9,F12,F21)</f>
@@ -1852,7 +1852,7 @@
         <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I16">
         <f>SUM(F15,F17)</f>
@@ -1875,7 +1875,7 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I17">
         <f>SUM(F18,F20)</f>

--- a/economic-calc.xlsx
+++ b/economic-calc.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danil\IdeaProjects\supreme-code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danil\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB59A55-6EA2-4213-9C64-98E846FFBF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5316"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -112,7 +111,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -639,6 +638,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -646,7 +646,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1529,23 +1528,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="3:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1565,7 +1564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="3">
         <v>12</v>
       </c>
@@ -1591,7 +1590,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="6">
         <v>2</v>
       </c>
@@ -1618,7 +1617,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="3:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:10" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="6">
         <v>10</v>
       </c>
@@ -1645,7 +1644,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="3:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:10" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="8">
         <v>6</v>
       </c>
@@ -1672,7 +1671,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="8">
         <v>32</v>
       </c>
@@ -1699,7 +1698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="8">
         <v>2</v>
       </c>
@@ -1726,7 +1725,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="8">
         <v>20</v>
       </c>
@@ -1742,7 +1741,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="8">
         <v>22</v>
       </c>
@@ -1758,7 +1757,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="8">
         <v>8</v>
       </c>
@@ -1774,7 +1773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="12">
         <v>150</v>
       </c>
@@ -1790,7 +1789,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="12">
         <v>40</v>
       </c>
@@ -1813,7 +1812,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="15" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="3">
         <v>1</v>
       </c>
@@ -1832,11 +1831,11 @@
         <v>9</v>
       </c>
       <c r="I15">
-        <f>SUM(F5,F9,F12,F21)</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f>SUM(F5,F9,F12,F21,F23)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="6">
         <v>9</v>
       </c>
@@ -1859,7 +1858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="6">
         <v>1</v>
       </c>
@@ -1882,7 +1881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="8">
         <v>1</v>
       </c>
@@ -1898,7 +1897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="8">
         <v>5</v>
       </c>
@@ -1914,7 +1913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="8">
         <v>1</v>
       </c>
@@ -1930,7 +1929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" s="12">
         <v>3</v>
       </c>
@@ -1946,7 +1945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="12">
         <v>6</v>
       </c>
@@ -1962,7 +1961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C23" s="12">
         <v>3</v>
       </c>
